--- a/server/current_tracker.xlsx
+++ b/server/current_tracker.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/server/current_tracker.xlsx
+++ b/server/current_tracker.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/server/current_tracker.xlsx
+++ b/server/current_tracker.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/server/current_tracker.xlsx
+++ b/server/current_tracker.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/server/current_tracker.xlsx
+++ b/server/current_tracker.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
